--- a/biology/Botanique/Paphiopedilum_purpuratum/Paphiopedilum_purpuratum.xlsx
+++ b/biology/Botanique/Paphiopedilum_purpuratum/Paphiopedilum_purpuratum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphiopedilum purpuratum est une espèce d'orchidées du genre Paphiopedilum. Elle est originaire de Chine en Asie.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cypripedium rothschildianum Rchb.f.
 Cordula purpurata (Lindl.) Rolfe (synonyme)
@@ -549,7 +563,9 @@
           <t>Orangerie du jardin du Luxembourg</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Orangerie du Jardin du Luxembourg de Paris détient un certain nombre de spécimens depuis de nombreuses années. Paphiopedilum purpuratum, ainsi qu'un certain nombre d'autres espèces détenues par l'Orangerie, sont périodiquement présentées et exposées à la visite du public.
 </t>
